--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime-new.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime-new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\eps-1.4.3-hk-wipB\eps-1.4.3-hk-wipB\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_6C880B396ECFFC6D2109EC3328A99FD2B0AB17E2" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_6C880B396ECFFC6D2109EC3328A99FD2B0AB17E2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79BB3898-04C5-4994-BCA9-997F8B04BD23}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9585" yWindow="555" windowWidth="10635" windowHeight="10110" tabRatio="742" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7275" yWindow="315" windowWidth="10455" windowHeight="10695" tabRatio="742" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -13126,7 +13126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BT13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -16452,7 +16452,9 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16570,7 +16572,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="8">
         <f>B$4/(1-'Other Values'!$B$2)</f>
         <v>1.1430650283942407E-3</v>
       </c>
@@ -16715,7 +16717,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <f>B$4</f>
         <v>3.5897909982629051E-4</v>
       </c>
@@ -16860,7 +16862,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="8">
         <f>Extrapolations!X2</f>
         <v>3.5897909982629051E-4</v>
       </c>
@@ -17005,7 +17007,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="8">
         <f>B$4</f>
         <v>3.5897909982629051E-4</v>
       </c>
@@ -17150,7 +17152,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="8">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
         <v>7.9022636053866315E-4</v>
       </c>
@@ -17295,7 +17297,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>0</v>
       </c>
       <c r="C7">
@@ -21111,24 +21113,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21362,7 +21346,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C73575D5-A1C5-4F85-99E1-28BC6D13B043}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4470559F-8178-4DC4-89F4-74AFCE229FEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FF4692-C2B6-4BAD-8F6F-9A306E27AF5D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21378,16 +21408,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4470559F-8178-4DC4-89F4-74AFCE229FEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C73575D5-A1C5-4F85-99E1-28BC6D13B043}"/>
 </file>
--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime-new.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime-new.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\eps-1.4.3-hk-wipB\eps-1.4.3-hk-wipB\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6C880B396ECFFC6D2109EC3328A99FD2B0AB17E2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79BB3898-04C5-4994-BCA9-997F8B04BD23}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_6C880B396ECFFC6D2109EC3328A99FD2B0AB17E2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C27B3608-B12B-431C-9FF9-342D513077F9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7275" yWindow="315" windowWidth="10455" windowHeight="10695" tabRatio="742" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9855" yWindow="345" windowWidth="10455" windowHeight="10920" tabRatio="742" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -16452,7 +16452,7 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -18376,7 +18376,9 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -21113,6 +21115,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21346,25 +21366,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FF4692-C2B6-4BAD-8F6F-9A306E27AF5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4470559F-8178-4DC4-89F4-74AFCE229FEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C73575D5-A1C5-4F85-99E1-28BC6D13B043}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21382,30 +21410,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4470559F-8178-4DC4-89F4-74AFCE229FEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FF4692-C2B6-4BAD-8F6F-9A306E27AF5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime-new.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime-new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_6C880B396ECFFC6D2109EC3328A99FD2B0AB17E2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C27B3608-B12B-431C-9FF9-342D513077F9}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_6C880B396ECFFC6D2109EC3328A99FD2B0AB17E2" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{C27B3608-B12B-431C-9FF9-342D513077F9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9855" yWindow="345" windowWidth="10455" windowHeight="10920" tabRatio="742" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9390" yWindow="1935" windowWidth="15645" windowHeight="12825" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -5390,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18376,7 +18376,7 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -21115,24 +21115,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21366,33 +21348,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FF4692-C2B6-4BAD-8F6F-9A306E27AF5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4470559F-8178-4DC4-89F4-74AFCE229FEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C73575D5-A1C5-4F85-99E1-28BC6D13B043}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21410,4 +21384,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4470559F-8178-4DC4-89F4-74AFCE229FEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FF4692-C2B6-4BAD-8F6F-9A306E27AF5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>